--- a/DAM_Database/Hazards/Salinity/Initial_input.xlsx
+++ b/DAM_Database/Hazards/Salinity/Initial_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PortableCompiler\Codes\Dynamic Adaptation Model\DAM\DAM_Database\Hazards\Salinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A532B9A-8270-494E-9175-8B85EFE6FB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0B86A5-9A29-449C-864F-85638ABE7129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial_input" sheetId="1" r:id="rId1"/>
@@ -46,58 +46,58 @@
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>Trainning</t>
-  </si>
-  <si>
-    <t>Growth centre</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
     <t>Adaptation_Indicator</t>
   </si>
   <si>
-    <t>Fishculture (Culture/capture)</t>
-  </si>
-  <si>
-    <t>Livestock (Cattle/Poultry)</t>
-  </si>
-  <si>
-    <t>Non-institutional Loan</t>
-  </si>
-  <si>
-    <t>Safe drinking water Source</t>
-  </si>
-  <si>
-    <t>Irrigation System for crops</t>
-  </si>
-  <si>
-    <t>Homestead Plantation &amp; Vegetation</t>
-  </si>
-  <si>
-    <t>Livelihood Migration</t>
-  </si>
-  <si>
-    <t>Social protection Protection</t>
-  </si>
-  <si>
-    <t>Communication Infrastructure</t>
-  </si>
-  <si>
-    <t>Health care Provider</t>
-  </si>
-  <si>
-    <t>Alternative livelihood Options</t>
-  </si>
-  <si>
-    <t>Microcredit/Organizational support (Emergency Support)</t>
-  </si>
-  <si>
-    <t>Cropping system (Shrim/Crab/Agricultural Crops)</t>
-  </si>
-  <si>
     <t>Adaptation Capacity</t>
+  </si>
+  <si>
+    <t>Fisheries</t>
+  </si>
+  <si>
+    <t>Livestock Farming</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Safe water drinking sources</t>
+  </si>
+  <si>
+    <t>Irrigation System</t>
+  </si>
+  <si>
+    <t>Plantation</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Social protection system</t>
+  </si>
+  <si>
+    <t>Communication &amp; infrastructure System</t>
+  </si>
+  <si>
+    <t>Health care system</t>
+  </si>
+  <si>
+    <t>Growth center</t>
+  </si>
+  <si>
+    <t>Alternate livelihood options</t>
+  </si>
+  <si>
+    <t>Organizational support</t>
+  </si>
+  <si>
+    <t>Cropping system</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,15 +1627,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>7.7218795091993683E-2</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>7.4951670411291915E-2</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>5.0226077616305709E-2</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>5.8814821739656215E-2</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>5.6903982167618314E-2</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>2.8334162552793786E-2</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>4.6718433551358685E-2</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>4.4974047537971705E-2</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>6.0220322994464191E-2</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>5.2387918586440214E-2</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>4.8735343811600225E-2</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
         <v>0.30210407348111384</v>

--- a/DAM_Database/Hazards/Salinity/Initial_input.xlsx
+++ b/DAM_Database/Hazards/Salinity/Initial_input.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PortableCompiler\Codes\Dynamic Adaptation Model\DAM\DAM_Database\Hazards\Salinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0B86A5-9A29-449C-864F-85638ABE7129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2935108C-110B-4D5C-895C-306CB31710CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial_input" sheetId="1" r:id="rId1"/>
     <sheet name="BN_Weight" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$Q$56</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>THACODE</t>
   </si>
@@ -55,56 +59,374 @@
     <t>Adaptation Capacity</t>
   </si>
   <si>
-    <t>Fisheries</t>
-  </si>
-  <si>
-    <t>Livestock Farming</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Safe water drinking sources</t>
-  </si>
-  <si>
-    <t>Irrigation System</t>
-  </si>
-  <si>
-    <t>Plantation</t>
-  </si>
-  <si>
-    <t>Migration</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Social protection system</t>
-  </si>
-  <si>
-    <t>Communication &amp; infrastructure System</t>
-  </si>
-  <si>
-    <t>Health care system</t>
-  </si>
-  <si>
-    <t>Growth center</t>
-  </si>
-  <si>
-    <t>Alternate livelihood options</t>
-  </si>
-  <si>
-    <t>Organizational support</t>
-  </si>
-  <si>
-    <t>Cropping system</t>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x9</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>x15</t>
+  </si>
+  <si>
+    <t>x16</t>
+  </si>
+  <si>
+    <t>x17</t>
+  </si>
+  <si>
+    <t>x18</t>
+  </si>
+  <si>
+    <t>x19</t>
+  </si>
+  <si>
+    <t>x20</t>
+  </si>
+  <si>
+    <t>x21</t>
+  </si>
+  <si>
+    <t>x22</t>
+  </si>
+  <si>
+    <t>x23</t>
+  </si>
+  <si>
+    <t>x24</t>
+  </si>
+  <si>
+    <t>x25</t>
+  </si>
+  <si>
+    <t>x26</t>
+  </si>
+  <si>
+    <t>x27</t>
+  </si>
+  <si>
+    <t>x28</t>
+  </si>
+  <si>
+    <t>x29</t>
+  </si>
+  <si>
+    <t>x30</t>
+  </si>
+  <si>
+    <t>x31</t>
+  </si>
+  <si>
+    <t>x32</t>
+  </si>
+  <si>
+    <t>x33</t>
+  </si>
+  <si>
+    <t>x34</t>
+  </si>
+  <si>
+    <t>x35</t>
+  </si>
+  <si>
+    <t>x36</t>
+  </si>
+  <si>
+    <t>x37</t>
+  </si>
+  <si>
+    <t>x38</t>
+  </si>
+  <si>
+    <t>x39</t>
+  </si>
+  <si>
+    <t>x40</t>
+  </si>
+  <si>
+    <t>x41</t>
+  </si>
+  <si>
+    <t>x42</t>
+  </si>
+  <si>
+    <t>x43</t>
+  </si>
+  <si>
+    <t>x44</t>
+  </si>
+  <si>
+    <t>x45</t>
+  </si>
+  <si>
+    <t>x46</t>
+  </si>
+  <si>
+    <t>x47</t>
+  </si>
+  <si>
+    <t>x48</t>
+  </si>
+  <si>
+    <t>x49</t>
+  </si>
+  <si>
+    <t>x50</t>
+  </si>
+  <si>
+    <t>x51</t>
+  </si>
+  <si>
+    <t>x52</t>
+  </si>
+  <si>
+    <t>x53</t>
+  </si>
+  <si>
+    <t>x54</t>
+  </si>
+  <si>
+    <t>ineq1</t>
+  </si>
+  <si>
+    <t>ineq2</t>
+  </si>
+  <si>
+    <t>ineq3</t>
+  </si>
+  <si>
+    <t>ineq4</t>
+  </si>
+  <si>
+    <t>ineq5</t>
+  </si>
+  <si>
+    <t>ineq6</t>
+  </si>
+  <si>
+    <t>ineq7</t>
+  </si>
+  <si>
+    <t>ineq8</t>
+  </si>
+  <si>
+    <t>ineq9</t>
+  </si>
+  <si>
+    <t>ineq10</t>
+  </si>
+  <si>
+    <t>ineq11</t>
+  </si>
+  <si>
+    <t>ineq12</t>
+  </si>
+  <si>
+    <t>ineq13</t>
+  </si>
+  <si>
+    <t>ineq14</t>
+  </si>
+  <si>
+    <t>ineq15</t>
+  </si>
+  <si>
+    <t>ineq16</t>
+  </si>
+  <si>
+    <t>Filtered water</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Salt farming</t>
+  </si>
+  <si>
+    <t>Access to capture fish</t>
+  </si>
+  <si>
+    <t>Aquaculture ponds</t>
+  </si>
+  <si>
+    <t>Access to aquatic resources</t>
+  </si>
+  <si>
+    <t>Mixed aquaculture</t>
+  </si>
+  <si>
+    <t>Cattle rearing</t>
+  </si>
+  <si>
+    <t>Livestock place</t>
+  </si>
+  <si>
+    <t>Poultry rearing</t>
+  </si>
+  <si>
+    <t>Available wetland/land for fodder</t>
+  </si>
+  <si>
+    <t>Moneylender (Non-institutional)</t>
+  </si>
+  <si>
+    <t>Pond Sand Filter</t>
+  </si>
+  <si>
+    <t>Rainwater harvesting tank</t>
+  </si>
+  <si>
+    <t>Rainwater harvesting pond</t>
+  </si>
+  <si>
+    <t>Saline water treatment plant</t>
+  </si>
+  <si>
+    <t>Tap water</t>
+  </si>
+  <si>
+    <t>Tube well</t>
+  </si>
+  <si>
+    <t>River/Canals</t>
+  </si>
+  <si>
+    <t>Shallow tube well</t>
+  </si>
+  <si>
+    <t>Deep tube well</t>
+  </si>
+  <si>
+    <t>Homestead plantation</t>
+  </si>
+  <si>
+    <t>Livelihood migration</t>
+  </si>
+  <si>
+    <t>Vocational/technical training</t>
+  </si>
+  <si>
+    <t>Indigenous knowledge</t>
+  </si>
+  <si>
+    <t>Agriculture/ health/ personal insurance</t>
+  </si>
+  <si>
+    <t>Personal savings</t>
+  </si>
+  <si>
+    <t>Social SafetyNet Program</t>
+  </si>
+  <si>
+    <t>Bridge/Culvert</t>
+  </si>
+  <si>
+    <t>RCC road</t>
+  </si>
+  <si>
+    <t>Number of community clinic</t>
+  </si>
+  <si>
+    <t>Floating medical unit</t>
+  </si>
+  <si>
+    <t>Number of health worker</t>
+  </si>
+  <si>
+    <t>Market/Bazar with hard structure</t>
+  </si>
+  <si>
+    <t>Hat with hard structure</t>
+  </si>
+  <si>
+    <t>Crab fattening</t>
+  </si>
+  <si>
+    <t>Dry fish</t>
+  </si>
+  <si>
+    <t>Laboring</t>
+  </si>
+  <si>
+    <t>Shrimp farming</t>
+  </si>
+  <si>
+    <t>Agricultural support (Seed/Fertilizer)</t>
+  </si>
+  <si>
+    <t>Micro-credit from organizations</t>
+  </si>
+  <si>
+    <t>Livestock support (Poultry/ Cattle/ Place)</t>
+  </si>
+  <si>
+    <t>Relief (Rice/Money/Foods)</t>
+  </si>
+  <si>
+    <t>Fertilizer (Red and Black)</t>
+  </si>
+  <si>
+    <t>Integrated farming</t>
+  </si>
+  <si>
+    <t>Lime (CaOH2)</t>
+  </si>
+  <si>
+    <t>Saline tolerant plant/Fish/Crab</t>
+  </si>
+  <si>
+    <t>Seed/Rice bank</t>
+  </si>
+  <si>
+    <t>Water Hyacinth</t>
+  </si>
+  <si>
+    <t>Cropping intensity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +561,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +760,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -542,6 +882,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -587,13 +942,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -952,7 +1308,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,15 +1969,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1635,125 +1991,3390 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>7.7218795091993683E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.5517068001081012E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>7.4951670411291915E-2</v>
+        <v>82</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.6024688852206733E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5.0226077616305709E-2</v>
+        <v>83</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.887265512151499E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.8814821739656215E-2</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.51883116874908E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3">
-        <v>5.6903982167618314E-2</v>
+        <v>2.7491925440435262E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3">
-        <v>2.8334162552793786E-2</v>
+        <v>1.4758823131181036E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3">
-        <v>4.6718433551358685E-2</v>
+        <v>2.5755593307355142E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3">
-        <v>4.4974047537971705E-2</v>
+        <v>6.9453285323204878E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B10" s="3">
-        <v>3.6653216402306982E-2</v>
+        <v>5.0226077616305709E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3">
-        <v>2.6596408360212188E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3">
-        <v>3.5160725694872469E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3">
-        <v>6.0220322994464191E-2</v>
+        <v>3.7299840992980511E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3">
-        <v>5.2387918586440214E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3">
-        <v>4.8735343811600225E-2</v>
+        <v>2.151498074667571E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B16" s="3">
-        <v>0.30210407348111384</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.2815073269346341E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.0889088982719755E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2.8334162552793786E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3.6816156874712007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3.4122100743983509E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.0851946793988196E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6.8297918762062716E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9.1063891682750277E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2.6636188317204455E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8.4234099806544012E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6.0544669437881411E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2.0541941416424046E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3.5160725694872469E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2.0866287859841272E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3.9354035134622919E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5.4194398537696763E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4.6968478732670536E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.2659727757771724E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6.6140823744314592E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4.0032603845243054E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3.185202827686729E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6.2724998307519389E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4.6723723229070577E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6.9765559342036876E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2.3041836112966313E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2.133503343793177E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.8031290951174409E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4.1603315203966949E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21622AA6-621A-4AA1-B75D-80403478B343}">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+      <c r="D6">
+        <v>-0.03</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-0.02</v>
+      </c>
+      <c r="L6">
+        <v>-0.02</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>-0.02</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-0.17</v>
+      </c>
+      <c r="D7">
+        <v>-0.06</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-0.04</v>
+      </c>
+      <c r="L7">
+        <v>-0.03</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>-0.04</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-0.23</v>
+      </c>
+      <c r="D9">
+        <v>-0.08</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-0.05</v>
+      </c>
+      <c r="L9">
+        <v>-0.05</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-0.06</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-0.18</v>
+      </c>
+      <c r="D10">
+        <v>-0.06</v>
+      </c>
+      <c r="E10">
+        <v>-0.05</v>
+      </c>
+      <c r="F10">
+        <v>-0.21</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-0.27</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-0.04</v>
+      </c>
+      <c r="L10">
+        <v>-0.04</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>-0.04</v>
+      </c>
+      <c r="O10">
+        <v>-0.22</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-0.1</v>
+      </c>
+      <c r="D11">
+        <v>-0.03</v>
+      </c>
+      <c r="E11">
+        <v>-0.03</v>
+      </c>
+      <c r="F11">
+        <v>-0.11</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>-0.02</v>
+      </c>
+      <c r="L11">
+        <v>-0.02</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>-0.02</v>
+      </c>
+      <c r="O11">
+        <v>-0.12</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-0.17</v>
+      </c>
+      <c r="D12">
+        <v>-0.05</v>
+      </c>
+      <c r="E12">
+        <v>-0.05</v>
+      </c>
+      <c r="F12">
+        <v>-0.19</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-0.25</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-0.04</v>
+      </c>
+      <c r="L12">
+        <v>-0.03</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>-0.04</v>
+      </c>
+      <c r="O12">
+        <v>-0.2</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-0.05</v>
+      </c>
+      <c r="D13">
+        <v>-0.01</v>
+      </c>
+      <c r="E13">
+        <v>-0.01</v>
+      </c>
+      <c r="F13">
+        <v>-0.05</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>-0.01</v>
+      </c>
+      <c r="L13">
+        <v>-0.01</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>-0.01</v>
+      </c>
+      <c r="O13">
+        <v>-0.05</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-0.09</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>-0.06</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F17">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-0.06</v>
+      </c>
+      <c r="L17">
+        <v>-0.05</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>-0.06</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-0.04</v>
+      </c>
+      <c r="F19">
+        <v>-0.16</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>-0.03</v>
+      </c>
+      <c r="L19">
+        <v>-0.03</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>-0.03</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>-0.1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-0.08</v>
+      </c>
+      <c r="L22">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>-0.08</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-0.01</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-0.01</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-0.01</v>
+      </c>
+      <c r="L23">
+        <v>-0.01</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>-0.01</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H25">
+        <v>-0.27</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>-0.09</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>-0.04</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>-0.03</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>-0.01</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-0.04</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-0.01</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>-0.01</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>-0.03</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>-0.09</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>-0.05</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>-0.03</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>-0.06</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>-0.01</v>
+      </c>
+      <c r="L42">
+        <v>-0.01</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>-0.04</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L43">
+        <v>-0.06</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>-0.37</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>-0.13</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>-0.08</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>-0.65</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E49">
+        <v>-0.12</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>-0.16</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>-0.16</v>
+      </c>
+      <c r="K49">
+        <v>-0.1</v>
+      </c>
+      <c r="L49">
+        <v>-0.08</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>-0.1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>-0.1</v>
+      </c>
+      <c r="E50">
+        <v>-0.09</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>-0.12</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>-0.12</v>
+      </c>
+      <c r="K50">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L50">
+        <v>-0.06</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>-0.15</v>
+      </c>
+      <c r="E51">
+        <v>-0.13</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>-0.18</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>-0.18</v>
+      </c>
+      <c r="K51">
+        <v>-0.11</v>
+      </c>
+      <c r="L51">
+        <v>-0.09</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>-0.11</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>-0.05</v>
+      </c>
+      <c r="E52">
+        <v>-0.04</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>-0.06</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>-0.06</v>
+      </c>
+      <c r="K52">
+        <v>-0.03</v>
+      </c>
+      <c r="L52">
+        <v>-0.03</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>-0.04</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>-0.13</v>
+      </c>
+      <c r="E54">
+        <v>-0.11</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>-0.15</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>-0.15</v>
+      </c>
+      <c r="K54">
+        <v>-0.09</v>
+      </c>
+      <c r="L54">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>-0.09</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>-0.09</v>
+      </c>
+      <c r="E55">
+        <v>-0.08</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>-0.11</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>-0.11</v>
+      </c>
+      <c r="K55">
+        <v>-0.06</v>
+      </c>
+      <c r="L55">
+        <v>-0.05</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q56" xr:uid="{21622AA6-621A-4AA1-B75D-80403478B343}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>